--- a/po_analysis_by_asin/B0C4CB8G8D_po_data.xlsx
+++ b/po_analysis_by_asin/B0C4CB8G8D_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,63 +452,63 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>240</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45327</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45341</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45348</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45355</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45376</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>10</v>
@@ -516,159 +516,159 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45383</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45390</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45397</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45404</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45418</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45425</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45439</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>160</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45446</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45453</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45460</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45467</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45474</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45481</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>40</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45495</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45509</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45516</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45523</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45530</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45537</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45544</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>60</v>
@@ -676,49 +676,201 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45551</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45558</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45565</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45579</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45586</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45593</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B35" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B54" t="n">
         <v>120</v>
       </c>
     </row>
@@ -733,7 +885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -755,81 +907,137 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>360</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>360</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>220</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>320</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B18" t="n">
         <v>420</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0C4CB8G8D_po_data.xlsx
+++ b/po_analysis_by_asin/B0C4CB8G8D_po_data.xlsx
@@ -519,7 +519,7 @@
         <v>45137.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -926,7 +926,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">

--- a/po_analysis_by_asin/B0C4CB8G8D_po_data.xlsx
+++ b/po_analysis_by_asin/B0C4CB8G8D_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -901,7 +902,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1039,6 +1040,901 @@
       </c>
       <c r="B18" t="n">
         <v>420</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>38</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-21.56947898360227</v>
+      </c>
+      <c r="D2" t="n">
+        <v>96.44638268498753</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>39</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-16.06459356404544</v>
+      </c>
+      <c r="D3" t="n">
+        <v>95.18556641541537</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>39</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-20.19803211642097</v>
+      </c>
+      <c r="D4" t="n">
+        <v>97.80807110026866</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>40</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-16.09108999546001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>100.6163304216431</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>41</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-19.84667411427937</v>
+      </c>
+      <c r="D6" t="n">
+        <v>99.34368640042821</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>41</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-16.1365884355514</v>
+      </c>
+      <c r="D7" t="n">
+        <v>95.31022937147294</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>41</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-17.94290576610734</v>
+      </c>
+      <c r="D8" t="n">
+        <v>98.42043779368231</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>42</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-11.91684279798322</v>
+      </c>
+      <c r="D9" t="n">
+        <v>102.172662283361</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>43</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-16.77364356507379</v>
+      </c>
+      <c r="D10" t="n">
+        <v>103.9581034915831</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>45</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-11.93712681629538</v>
+      </c>
+      <c r="D11" t="n">
+        <v>101.8745151253882</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>46</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-9.639574855981255</v>
+      </c>
+      <c r="D12" t="n">
+        <v>102.2216114249332</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>46</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-15.70678260926194</v>
+      </c>
+      <c r="D13" t="n">
+        <v>100.7383479527824</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>47</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-9.346439970004877</v>
+      </c>
+      <c r="D14" t="n">
+        <v>106.1847718646503</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>48</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-7.307869304190483</v>
+      </c>
+      <c r="D15" t="n">
+        <v>104.4167140253729</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>48</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-6.303075474523538</v>
+      </c>
+      <c r="D16" t="n">
+        <v>103.1730568757035</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>49</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-9.236755500857511</v>
+      </c>
+      <c r="D17" t="n">
+        <v>105.9315260144079</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>50</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-5.987107936795273</v>
+      </c>
+      <c r="D18" t="n">
+        <v>106.2963876587962</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>50</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-11.46191746637973</v>
+      </c>
+      <c r="D19" t="n">
+        <v>103.9168865864943</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>51</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-8.241464287666314</v>
+      </c>
+      <c r="D20" t="n">
+        <v>109.9512557145808</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>53</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-4.224014481747234</v>
+      </c>
+      <c r="D21" t="n">
+        <v>113.2421037069729</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>53</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.5559241870714017</v>
+      </c>
+      <c r="D22" t="n">
+        <v>113.4613811018246</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>54</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.994716357237076</v>
+      </c>
+      <c r="D23" t="n">
+        <v>112.0652877121648</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>55</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.451207204564707</v>
+      </c>
+      <c r="D24" t="n">
+        <v>116.6600797456475</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>56</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.985975556923385</v>
+      </c>
+      <c r="D25" t="n">
+        <v>115.7716936531899</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>56</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-6.049140606354721</v>
+      </c>
+      <c r="D26" t="n">
+        <v>116.3945457049089</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>57</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.7246860502328782</v>
+      </c>
+      <c r="D27" t="n">
+        <v>110.7092278456987</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>58</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.698959086035474</v>
+      </c>
+      <c r="D28" t="n">
+        <v>119.9057435876909</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>58</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.071316238124396</v>
+      </c>
+      <c r="D29" t="n">
+        <v>117.129643396759</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>59</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.048073926635135</v>
+      </c>
+      <c r="D30" t="n">
+        <v>115.6060914759105</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>59</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6.062160896900005</v>
+      </c>
+      <c r="D31" t="n">
+        <v>120.9354392775677</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>60</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.874218304835999</v>
+      </c>
+      <c r="D32" t="n">
+        <v>116.9392575602251</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>60</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.233159042940045</v>
+      </c>
+      <c r="D33" t="n">
+        <v>115.0918554939968</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>61</v>
+      </c>
+      <c r="C34" t="n">
+        <v>6.548878522385951</v>
+      </c>
+      <c r="D34" t="n">
+        <v>120.6526640017839</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>62</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.851959983385283</v>
+      </c>
+      <c r="D35" t="n">
+        <v>118.2897138934654</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>62</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.069569326442187</v>
+      </c>
+      <c r="D36" t="n">
+        <v>120.6554287670408</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>63</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2.366917239463639</v>
+      </c>
+      <c r="D37" t="n">
+        <v>120.854703511711</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>63</v>
+      </c>
+      <c r="C38" t="n">
+        <v>8.164207840526938</v>
+      </c>
+      <c r="D38" t="n">
+        <v>120.9698386957511</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>64</v>
+      </c>
+      <c r="C39" t="n">
+        <v>6.194243017075834</v>
+      </c>
+      <c r="D39" t="n">
+        <v>120.0893481820443</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>64</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.831088972430985</v>
+      </c>
+      <c r="D40" t="n">
+        <v>121.3015605561995</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>64</v>
+      </c>
+      <c r="C41" t="n">
+        <v>8.331099515616705</v>
+      </c>
+      <c r="D41" t="n">
+        <v>124.4604169716828</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>65</v>
+      </c>
+      <c r="C42" t="n">
+        <v>7.032114084276478</v>
+      </c>
+      <c r="D42" t="n">
+        <v>122.0339016890793</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>66</v>
+      </c>
+      <c r="C43" t="n">
+        <v>5.568069167430245</v>
+      </c>
+      <c r="D43" t="n">
+        <v>124.2054007853055</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>67</v>
+      </c>
+      <c r="C44" t="n">
+        <v>9.13164475247123</v>
+      </c>
+      <c r="D44" t="n">
+        <v>124.5610635983838</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>67</v>
+      </c>
+      <c r="C45" t="n">
+        <v>8.064732614200201</v>
+      </c>
+      <c r="D45" t="n">
+        <v>121.8236405104145</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>67</v>
+      </c>
+      <c r="C46" t="n">
+        <v>6.905198696228286</v>
+      </c>
+      <c r="D46" t="n">
+        <v>124.7308239669705</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>68</v>
+      </c>
+      <c r="C47" t="n">
+        <v>6.581810012697339</v>
+      </c>
+      <c r="D47" t="n">
+        <v>126.6836844656099</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>68</v>
+      </c>
+      <c r="C48" t="n">
+        <v>14.94358358270074</v>
+      </c>
+      <c r="D48" t="n">
+        <v>127.9267940910617</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>69</v>
+      </c>
+      <c r="C49" t="n">
+        <v>8.25029294335641</v>
+      </c>
+      <c r="D49" t="n">
+        <v>127.1160455275774</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>69</v>
+      </c>
+      <c r="C50" t="n">
+        <v>11.18692300559469</v>
+      </c>
+      <c r="D50" t="n">
+        <v>127.2544530177933</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>70</v>
+      </c>
+      <c r="C51" t="n">
+        <v>15.60831058241384</v>
+      </c>
+      <c r="D51" t="n">
+        <v>124.1868027571158</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>70</v>
+      </c>
+      <c r="C52" t="n">
+        <v>16.16044596345555</v>
+      </c>
+      <c r="D52" t="n">
+        <v>128.4482216499758</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>71</v>
+      </c>
+      <c r="C53" t="n">
+        <v>11.40684178307739</v>
+      </c>
+      <c r="D53" t="n">
+        <v>129.1380387993974</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>71</v>
+      </c>
+      <c r="C54" t="n">
+        <v>7.774063952032608</v>
+      </c>
+      <c r="D54" t="n">
+        <v>126.4728553559534</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>72</v>
+      </c>
+      <c r="C55" t="n">
+        <v>11.22966488602484</v>
+      </c>
+      <c r="D55" t="n">
+        <v>131.1600653146052</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>72</v>
+      </c>
+      <c r="C56" t="n">
+        <v>13.48131090476766</v>
+      </c>
+      <c r="D56" t="n">
+        <v>130.6659494299773</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>73</v>
+      </c>
+      <c r="C57" t="n">
+        <v>16.23031821255336</v>
+      </c>
+      <c r="D57" t="n">
+        <v>131.8403897092846</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>73</v>
+      </c>
+      <c r="C58" t="n">
+        <v>14.96563861913365</v>
+      </c>
+      <c r="D58" t="n">
+        <v>129.4868940965985</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>73</v>
+      </c>
+      <c r="C59" t="n">
+        <v>21.7428572655664</v>
+      </c>
+      <c r="D59" t="n">
+        <v>132.9733464224088</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>74</v>
+      </c>
+      <c r="C60" t="n">
+        <v>17.12252326700666</v>
+      </c>
+      <c r="D60" t="n">
+        <v>136.3005435859707</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>74</v>
+      </c>
+      <c r="C61" t="n">
+        <v>14.96130071469526</v>
+      </c>
+      <c r="D61" t="n">
+        <v>132.1847360694601</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>75</v>
+      </c>
+      <c r="C62" t="n">
+        <v>18.82254981178779</v>
+      </c>
+      <c r="D62" t="n">
+        <v>133.5622926964765</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0C4CB8G8D_po_data.xlsx
+++ b/po_analysis_by_asin/B0C4CB8G8D_po_data.xlsx
@@ -1053,7 +1053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1072,16 +1072,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1090,12 +1080,6 @@
       <c r="B2" t="n">
         <v>38</v>
       </c>
-      <c r="C2" t="n">
-        <v>-21.56947898360227</v>
-      </c>
-      <c r="D2" t="n">
-        <v>96.44638268498753</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1104,12 +1088,6 @@
       <c r="B3" t="n">
         <v>39</v>
       </c>
-      <c r="C3" t="n">
-        <v>-16.06459356404544</v>
-      </c>
-      <c r="D3" t="n">
-        <v>95.18556641541537</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1118,12 +1096,6 @@
       <c r="B4" t="n">
         <v>39</v>
       </c>
-      <c r="C4" t="n">
-        <v>-20.19803211642097</v>
-      </c>
-      <c r="D4" t="n">
-        <v>97.80807110026866</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1132,12 +1104,6 @@
       <c r="B5" t="n">
         <v>40</v>
       </c>
-      <c r="C5" t="n">
-        <v>-16.09108999546001</v>
-      </c>
-      <c r="D5" t="n">
-        <v>100.6163304216431</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1146,12 +1112,6 @@
       <c r="B6" t="n">
         <v>41</v>
       </c>
-      <c r="C6" t="n">
-        <v>-19.84667411427937</v>
-      </c>
-      <c r="D6" t="n">
-        <v>99.34368640042821</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1160,12 +1120,6 @@
       <c r="B7" t="n">
         <v>41</v>
       </c>
-      <c r="C7" t="n">
-        <v>-16.1365884355514</v>
-      </c>
-      <c r="D7" t="n">
-        <v>95.31022937147294</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1174,12 +1128,6 @@
       <c r="B8" t="n">
         <v>41</v>
       </c>
-      <c r="C8" t="n">
-        <v>-17.94290576610734</v>
-      </c>
-      <c r="D8" t="n">
-        <v>98.42043779368231</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1188,12 +1136,6 @@
       <c r="B9" t="n">
         <v>42</v>
       </c>
-      <c r="C9" t="n">
-        <v>-11.91684279798322</v>
-      </c>
-      <c r="D9" t="n">
-        <v>102.172662283361</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1202,12 +1144,6 @@
       <c r="B10" t="n">
         <v>43</v>
       </c>
-      <c r="C10" t="n">
-        <v>-16.77364356507379</v>
-      </c>
-      <c r="D10" t="n">
-        <v>103.9581034915831</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1216,12 +1152,6 @@
       <c r="B11" t="n">
         <v>45</v>
       </c>
-      <c r="C11" t="n">
-        <v>-11.93712681629538</v>
-      </c>
-      <c r="D11" t="n">
-        <v>101.8745151253882</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1230,12 +1160,6 @@
       <c r="B12" t="n">
         <v>46</v>
       </c>
-      <c r="C12" t="n">
-        <v>-9.639574855981255</v>
-      </c>
-      <c r="D12" t="n">
-        <v>102.2216114249332</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1244,12 +1168,6 @@
       <c r="B13" t="n">
         <v>46</v>
       </c>
-      <c r="C13" t="n">
-        <v>-15.70678260926194</v>
-      </c>
-      <c r="D13" t="n">
-        <v>100.7383479527824</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1258,12 +1176,6 @@
       <c r="B14" t="n">
         <v>47</v>
       </c>
-      <c r="C14" t="n">
-        <v>-9.346439970004877</v>
-      </c>
-      <c r="D14" t="n">
-        <v>106.1847718646503</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1272,12 +1184,6 @@
       <c r="B15" t="n">
         <v>48</v>
       </c>
-      <c r="C15" t="n">
-        <v>-7.307869304190483</v>
-      </c>
-      <c r="D15" t="n">
-        <v>104.4167140253729</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1286,12 +1192,6 @@
       <c r="B16" t="n">
         <v>48</v>
       </c>
-      <c r="C16" t="n">
-        <v>-6.303075474523538</v>
-      </c>
-      <c r="D16" t="n">
-        <v>103.1730568757035</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1300,12 +1200,6 @@
       <c r="B17" t="n">
         <v>49</v>
       </c>
-      <c r="C17" t="n">
-        <v>-9.236755500857511</v>
-      </c>
-      <c r="D17" t="n">
-        <v>105.9315260144079</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1314,12 +1208,6 @@
       <c r="B18" t="n">
         <v>50</v>
       </c>
-      <c r="C18" t="n">
-        <v>-5.987107936795273</v>
-      </c>
-      <c r="D18" t="n">
-        <v>106.2963876587962</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1328,12 +1216,6 @@
       <c r="B19" t="n">
         <v>50</v>
       </c>
-      <c r="C19" t="n">
-        <v>-11.46191746637973</v>
-      </c>
-      <c r="D19" t="n">
-        <v>103.9168865864943</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1342,12 +1224,6 @@
       <c r="B20" t="n">
         <v>51</v>
       </c>
-      <c r="C20" t="n">
-        <v>-8.241464287666314</v>
-      </c>
-      <c r="D20" t="n">
-        <v>109.9512557145808</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1356,12 +1232,6 @@
       <c r="B21" t="n">
         <v>53</v>
       </c>
-      <c r="C21" t="n">
-        <v>-4.224014481747234</v>
-      </c>
-      <c r="D21" t="n">
-        <v>113.2421037069729</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1370,12 +1240,6 @@
       <c r="B22" t="n">
         <v>53</v>
       </c>
-      <c r="C22" t="n">
-        <v>-0.5559241870714017</v>
-      </c>
-      <c r="D22" t="n">
-        <v>113.4613811018246</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1384,12 +1248,6 @@
       <c r="B23" t="n">
         <v>54</v>
       </c>
-      <c r="C23" t="n">
-        <v>-1.994716357237076</v>
-      </c>
-      <c r="D23" t="n">
-        <v>112.0652877121648</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1398,12 +1256,6 @@
       <c r="B24" t="n">
         <v>55</v>
       </c>
-      <c r="C24" t="n">
-        <v>-2.451207204564707</v>
-      </c>
-      <c r="D24" t="n">
-        <v>116.6600797456475</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1412,12 +1264,6 @@
       <c r="B25" t="n">
         <v>56</v>
       </c>
-      <c r="C25" t="n">
-        <v>1.985975556923385</v>
-      </c>
-      <c r="D25" t="n">
-        <v>115.7716936531899</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1426,12 +1272,6 @@
       <c r="B26" t="n">
         <v>56</v>
       </c>
-      <c r="C26" t="n">
-        <v>-6.049140606354721</v>
-      </c>
-      <c r="D26" t="n">
-        <v>116.3945457049089</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1440,12 +1280,6 @@
       <c r="B27" t="n">
         <v>57</v>
       </c>
-      <c r="C27" t="n">
-        <v>-0.7246860502328782</v>
-      </c>
-      <c r="D27" t="n">
-        <v>110.7092278456987</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1454,12 +1288,6 @@
       <c r="B28" t="n">
         <v>58</v>
       </c>
-      <c r="C28" t="n">
-        <v>1.698959086035474</v>
-      </c>
-      <c r="D28" t="n">
-        <v>119.9057435876909</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1468,12 +1296,6 @@
       <c r="B29" t="n">
         <v>58</v>
       </c>
-      <c r="C29" t="n">
-        <v>4.071316238124396</v>
-      </c>
-      <c r="D29" t="n">
-        <v>117.129643396759</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1482,12 +1304,6 @@
       <c r="B30" t="n">
         <v>59</v>
       </c>
-      <c r="C30" t="n">
-        <v>-1.048073926635135</v>
-      </c>
-      <c r="D30" t="n">
-        <v>115.6060914759105</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1496,12 +1312,6 @@
       <c r="B31" t="n">
         <v>59</v>
       </c>
-      <c r="C31" t="n">
-        <v>6.062160896900005</v>
-      </c>
-      <c r="D31" t="n">
-        <v>120.9354392775677</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1510,12 +1320,6 @@
       <c r="B32" t="n">
         <v>60</v>
       </c>
-      <c r="C32" t="n">
-        <v>2.874218304835999</v>
-      </c>
-      <c r="D32" t="n">
-        <v>116.9392575602251</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1524,12 +1328,6 @@
       <c r="B33" t="n">
         <v>60</v>
       </c>
-      <c r="C33" t="n">
-        <v>2.233159042940045</v>
-      </c>
-      <c r="D33" t="n">
-        <v>115.0918554939968</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1538,12 +1336,6 @@
       <c r="B34" t="n">
         <v>61</v>
       </c>
-      <c r="C34" t="n">
-        <v>6.548878522385951</v>
-      </c>
-      <c r="D34" t="n">
-        <v>120.6526640017839</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1552,12 +1344,6 @@
       <c r="B35" t="n">
         <v>62</v>
       </c>
-      <c r="C35" t="n">
-        <v>2.851959983385283</v>
-      </c>
-      <c r="D35" t="n">
-        <v>118.2897138934654</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1566,12 +1352,6 @@
       <c r="B36" t="n">
         <v>62</v>
       </c>
-      <c r="C36" t="n">
-        <v>2.069569326442187</v>
-      </c>
-      <c r="D36" t="n">
-        <v>120.6554287670408</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1580,12 +1360,6 @@
       <c r="B37" t="n">
         <v>63</v>
       </c>
-      <c r="C37" t="n">
-        <v>2.366917239463639</v>
-      </c>
-      <c r="D37" t="n">
-        <v>120.854703511711</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1594,12 +1368,6 @@
       <c r="B38" t="n">
         <v>63</v>
       </c>
-      <c r="C38" t="n">
-        <v>8.164207840526938</v>
-      </c>
-      <c r="D38" t="n">
-        <v>120.9698386957511</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1608,12 +1376,6 @@
       <c r="B39" t="n">
         <v>64</v>
       </c>
-      <c r="C39" t="n">
-        <v>6.194243017075834</v>
-      </c>
-      <c r="D39" t="n">
-        <v>120.0893481820443</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1622,12 +1384,6 @@
       <c r="B40" t="n">
         <v>64</v>
       </c>
-      <c r="C40" t="n">
-        <v>0.831088972430985</v>
-      </c>
-      <c r="D40" t="n">
-        <v>121.3015605561995</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1636,12 +1392,6 @@
       <c r="B41" t="n">
         <v>64</v>
       </c>
-      <c r="C41" t="n">
-        <v>8.331099515616705</v>
-      </c>
-      <c r="D41" t="n">
-        <v>124.4604169716828</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1650,12 +1400,6 @@
       <c r="B42" t="n">
         <v>65</v>
       </c>
-      <c r="C42" t="n">
-        <v>7.032114084276478</v>
-      </c>
-      <c r="D42" t="n">
-        <v>122.0339016890793</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1664,12 +1408,6 @@
       <c r="B43" t="n">
         <v>66</v>
       </c>
-      <c r="C43" t="n">
-        <v>5.568069167430245</v>
-      </c>
-      <c r="D43" t="n">
-        <v>124.2054007853055</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1678,12 +1416,6 @@
       <c r="B44" t="n">
         <v>67</v>
       </c>
-      <c r="C44" t="n">
-        <v>9.13164475247123</v>
-      </c>
-      <c r="D44" t="n">
-        <v>124.5610635983838</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1692,12 +1424,6 @@
       <c r="B45" t="n">
         <v>67</v>
       </c>
-      <c r="C45" t="n">
-        <v>8.064732614200201</v>
-      </c>
-      <c r="D45" t="n">
-        <v>121.8236405104145</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1706,12 +1432,6 @@
       <c r="B46" t="n">
         <v>67</v>
       </c>
-      <c r="C46" t="n">
-        <v>6.905198696228286</v>
-      </c>
-      <c r="D46" t="n">
-        <v>124.7308239669705</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1720,12 +1440,6 @@
       <c r="B47" t="n">
         <v>68</v>
       </c>
-      <c r="C47" t="n">
-        <v>6.581810012697339</v>
-      </c>
-      <c r="D47" t="n">
-        <v>126.6836844656099</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1734,12 +1448,6 @@
       <c r="B48" t="n">
         <v>68</v>
       </c>
-      <c r="C48" t="n">
-        <v>14.94358358270074</v>
-      </c>
-      <c r="D48" t="n">
-        <v>127.9267940910617</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1748,12 +1456,6 @@
       <c r="B49" t="n">
         <v>69</v>
       </c>
-      <c r="C49" t="n">
-        <v>8.25029294335641</v>
-      </c>
-      <c r="D49" t="n">
-        <v>127.1160455275774</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1762,12 +1464,6 @@
       <c r="B50" t="n">
         <v>69</v>
       </c>
-      <c r="C50" t="n">
-        <v>11.18692300559469</v>
-      </c>
-      <c r="D50" t="n">
-        <v>127.2544530177933</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1776,12 +1472,6 @@
       <c r="B51" t="n">
         <v>70</v>
       </c>
-      <c r="C51" t="n">
-        <v>15.60831058241384</v>
-      </c>
-      <c r="D51" t="n">
-        <v>124.1868027571158</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1790,12 +1480,6 @@
       <c r="B52" t="n">
         <v>70</v>
       </c>
-      <c r="C52" t="n">
-        <v>16.16044596345555</v>
-      </c>
-      <c r="D52" t="n">
-        <v>128.4482216499758</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1804,12 +1488,6 @@
       <c r="B53" t="n">
         <v>71</v>
       </c>
-      <c r="C53" t="n">
-        <v>11.40684178307739</v>
-      </c>
-      <c r="D53" t="n">
-        <v>129.1380387993974</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1818,12 +1496,6 @@
       <c r="B54" t="n">
         <v>71</v>
       </c>
-      <c r="C54" t="n">
-        <v>7.774063952032608</v>
-      </c>
-      <c r="D54" t="n">
-        <v>126.4728553559534</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1832,12 +1504,6 @@
       <c r="B55" t="n">
         <v>72</v>
       </c>
-      <c r="C55" t="n">
-        <v>11.22966488602484</v>
-      </c>
-      <c r="D55" t="n">
-        <v>131.1600653146052</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1846,12 +1512,6 @@
       <c r="B56" t="n">
         <v>72</v>
       </c>
-      <c r="C56" t="n">
-        <v>13.48131090476766</v>
-      </c>
-      <c r="D56" t="n">
-        <v>130.6659494299773</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1860,12 +1520,6 @@
       <c r="B57" t="n">
         <v>73</v>
       </c>
-      <c r="C57" t="n">
-        <v>16.23031821255336</v>
-      </c>
-      <c r="D57" t="n">
-        <v>131.8403897092846</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1874,12 +1528,6 @@
       <c r="B58" t="n">
         <v>73</v>
       </c>
-      <c r="C58" t="n">
-        <v>14.96563861913365</v>
-      </c>
-      <c r="D58" t="n">
-        <v>129.4868940965985</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1888,12 +1536,6 @@
       <c r="B59" t="n">
         <v>73</v>
       </c>
-      <c r="C59" t="n">
-        <v>21.7428572655664</v>
-      </c>
-      <c r="D59" t="n">
-        <v>132.9733464224088</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1902,12 +1544,6 @@
       <c r="B60" t="n">
         <v>74</v>
       </c>
-      <c r="C60" t="n">
-        <v>17.12252326700666</v>
-      </c>
-      <c r="D60" t="n">
-        <v>136.3005435859707</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -1916,12 +1552,6 @@
       <c r="B61" t="n">
         <v>74</v>
       </c>
-      <c r="C61" t="n">
-        <v>14.96130071469526</v>
-      </c>
-      <c r="D61" t="n">
-        <v>132.1847360694601</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -1929,12 +1559,6 @@
       </c>
       <c r="B62" t="n">
         <v>75</v>
-      </c>
-      <c r="C62" t="n">
-        <v>18.82254981178779</v>
-      </c>
-      <c r="D62" t="n">
-        <v>133.5622926964765</v>
       </c>
     </row>
   </sheetData>
